--- a/biology/Médecine/Centre_de_gérontologie_de_Belgrade/Centre_de_gérontologie_de_Belgrade.xlsx
+++ b/biology/Médecine/Centre_de_gérontologie_de_Belgrade/Centre_de_gérontologie_de_Belgrade.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_de_g%C3%A9rontologie_de_Belgrade</t>
+          <t>Centre_de_gérontologie_de_Belgrade</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le centre de gérontologie de Belgrade (en serbe cyrillique : Геронтолошки центар Београд ; en serbe latin : Gerontološki centar Beograd) est un établissement public situé à Belgrade, la capitale de la Serbie. Créé dans les années 1960, il fait partie de l'European Social Network (ESN), le « réseau social européen »[1].
+Le centre de gérontologie de Belgrade (en serbe cyrillique : Геронтолошки центар Београд ; en serbe latin : Gerontološki centar Beograd) est un établissement public situé à Belgrade, la capitale de la Serbie. Créé dans les années 1960, il fait partie de l'European Social Network (ESN), le « réseau social européen ».
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_de_g%C3%A9rontologie_de_Belgrade</t>
+          <t>Centre_de_gérontologie_de_Belgrade</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,16 @@
           <t>Réseau</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le centre dispose de plusieurs maisons qui assurent l'hébergement et le suivi des personnes âgées.
-La maison de Bežanijska kosa (Dom Bežanijska kosa), créée en 1983, se trouve sur le territoire de la municipalité de Zemun, au 49 rue Marije Bursać ; elle dispose d'une capacité de 600 lits[2] ; elle est accessible par la ligne de bus 77 (Zvezdara – Hôpital de Bežanijska kosa) de la société GSP Beograd[3].
-La maison de Voždovac (Dom Voždovac) est située aux n° 6-12 de la rue Kačerska ; créée en 1972, elle peut accueillir 270 personnes âgées[4] ; elle est desservie par les lignes d'autobus 18 (Medaković III - Zemun Bačka), 25 (Karaburma II – Kumodraž), 33 (Gare de Pančevački most – Kumodraž) et 39 (Slavija – Kumodraž I) ou par les lignes de tramway 9 (Banjica - Blok 45), 10 (Kalemegdan – Banjica) et 14 (Ustanička - Banjica)[5].
-La maison de Karaburma (Dom Karaburma) est située 2 rue Plješevička, à proximité du Danube ; construite en 1963, elle est la plus ancienne du réseau et a été rénovée en 1996 ; elle dispose de 175 places[6]. On peut y accéder par lignes d'autobus 16 (Karaburma II - Novi Beograd Pohorska), 23 (Karaburma II – Vidikovac) et 27 (Trg Republike – Mirijevo III)[5].
-La maison de Stacionar (Dom Stacionar), située 2 rue Diljska dans le quartier de Karaburma, peut accueillir 111 pensionnaires[7] ; on peut y accéder par les lignes de bus 16 (), 23 et 25, arrêt Diljska, ou par les bus 32 (Vukov spomenik – Višnjica), 32E (Trg Republike – Višnjica) et 35 (Trg Republike – Cimetière de Lešće), arrêt Sporta[5].
-Le Centre de gérontologie de Belgrade gère aussi de nombreux centres de jour et clubs de terrain[8].
+La maison de Bežanijska kosa (Dom Bežanijska kosa), créée en 1983, se trouve sur le territoire de la municipalité de Zemun, au 49 rue Marije Bursać ; elle dispose d'une capacité de 600 lits ; elle est accessible par la ligne de bus 77 (Zvezdara – Hôpital de Bežanijska kosa) de la société GSP Beograd.
+La maison de Voždovac (Dom Voždovac) est située aux n° 6-12 de la rue Kačerska ; créée en 1972, elle peut accueillir 270 personnes âgées ; elle est desservie par les lignes d'autobus 18 (Medaković III - Zemun Bačka), 25 (Karaburma II – Kumodraž), 33 (Gare de Pančevački most – Kumodraž) et 39 (Slavija – Kumodraž I) ou par les lignes de tramway 9 (Banjica - Blok 45), 10 (Kalemegdan – Banjica) et 14 (Ustanička - Banjica).
+La maison de Karaburma (Dom Karaburma) est située 2 rue Plješevička, à proximité du Danube ; construite en 1963, elle est la plus ancienne du réseau et a été rénovée en 1996 ; elle dispose de 175 places. On peut y accéder par lignes d'autobus 16 (Karaburma II - Novi Beograd Pohorska), 23 (Karaburma II – Vidikovac) et 27 (Trg Republike – Mirijevo III).
+La maison de Stacionar (Dom Stacionar), située 2 rue Diljska dans le quartier de Karaburma, peut accueillir 111 pensionnaires ; on peut y accéder par les lignes de bus 16 (), 23 et 25, arrêt Diljska, ou par les bus 32 (Vukov spomenik – Višnjica), 32E (Trg Republike – Višnjica) et 35 (Trg Republike – Cimetière de Lešće), arrêt Sporta.
+Le Centre de gérontologie de Belgrade gère aussi de nombreux centres de jour et clubs de terrain.
 </t>
         </is>
       </c>
